--- a/quick_starts/qs4_transit/Data/inputs/UserInputs.xlsx
+++ b/quick_starts/qs4_transit/Data/inputs/UserInputs.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\RDR\quick_starts\qs4_transit\Data\inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DAA2163-49F8-4298-9BA9-F5B9700620AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60A59A4C-B541-46E6-84BB-4CA9971DB494}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30405" yWindow="1155" windowWidth="24750" windowHeight="13320" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-25560" yWindow="740" windowWidth="18010" windowHeight="11010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="UserInputs" sheetId="1" r:id="rId1"/>
@@ -48,10 +48,10 @@
     <t>haz</t>
   </si>
   <si>
-    <t>Road_complete</t>
-  </si>
-  <si>
-    <t>Subway_complete</t>
+    <t>Road</t>
+  </si>
+  <si>
+    <t>Rail</t>
   </si>
 </sst>
 </file>
@@ -381,18 +381,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="21.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.7265625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.453125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.26953125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.1796875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -409,7 +411,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -426,7 +428,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="D3" t="s">
         <v>8</v>
       </c>
@@ -434,7 +436,7 @@
         <v>1.0009999999999999</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="D5" s="2"/>
     </row>
   </sheetData>
@@ -447,15 +449,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010027EA00A048AC0D429A85C51A62FECD2D" ma:contentTypeVersion="15" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="80f7edf319700d646fd7609c44aa8e05">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="f48c015b-9737-41c0-a66b-fb1abee3a169" xmlns:ns3="82817e06-30b9-43cf-b958-ceb9ef3b381f" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="02abb370397e3fd482f270da433270a9" ns2:_="" ns3:_="">
     <xsd:import namespace="f48c015b-9737-41c0-a66b-fb1abee3a169"/>
@@ -692,6 +685,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -704,14 +706,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E32602F4-E10A-4F70-BE42-F120844F725E}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{38DD2A0D-78F8-4A7A-BCD5-1726009064DD}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -730,6 +724,14 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E32602F4-E10A-4F70-BE42-F120844F725E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0C538C72-70BF-4B16-970A-72E230A12F85}">
   <ds:schemaRefs>
